--- a/Analysis/predicate_species1.xlsx
+++ b/Analysis/predicate_species1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="21820" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21820" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="occurances" sheetId="5" r:id="rId1"/>
@@ -19,10 +19,9 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -33732,7 +33731,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B231" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -34673,7 +34672,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A353" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -36396,7 +36395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
@@ -77822,7 +77821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A353"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
+    <sheetView topLeftCell="A290" workbookViewId="0">
       <selection activeCell="A287" sqref="A287:A322"/>
     </sheetView>
   </sheetViews>
@@ -79596,11 +79595,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:E237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:A25"/>
+      <selection pane="bottomRight" activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
